--- a/output/fit_clients/fit_round_325.xlsx
+++ b/output/fit_clients/fit_round_325.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2288931103.040442</v>
+        <v>2351802423.142993</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1131181364580068</v>
+        <v>0.110692296985161</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03179074955329431</v>
+        <v>0.04151269759990531</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1144465585.988152</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1943484883.968539</v>
+        <v>1988251789.201054</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1230305295080307</v>
+        <v>0.1823985693048152</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03289658998299316</v>
+        <v>0.04238771752870449</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>971742473.2969283</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4709484733.407609</v>
+        <v>4504526498.869892</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1647921117433485</v>
+        <v>0.148963109359896</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02392422917129165</v>
+        <v>0.03804122151340914</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>117</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2354742431.1508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3278901362.489548</v>
+        <v>3494012429.680575</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08737068424064842</v>
+        <v>0.07955374671034914</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0382751458899037</v>
+        <v>0.04040752748072143</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1639450732.655357</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2772275625.943616</v>
+        <v>2520021373.95513</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1086941605002195</v>
+        <v>0.1298973406150459</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04323036836545892</v>
+        <v>0.05195390760938164</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>62</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1386137758.993811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3001234006.755147</v>
+        <v>2257792520.049921</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08344405108476693</v>
+        <v>0.09216498439698803</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04435649871749478</v>
+        <v>0.04588923688242519</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>100</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1500616968.166467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2393945050.415401</v>
+        <v>3920623963.327676</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1565087169895993</v>
+        <v>0.1503437303995282</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02024954122683379</v>
+        <v>0.02270721277725599</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>104</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1196972520.771537</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1832901943.254515</v>
+        <v>1832663480.778346</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1673662671561918</v>
+        <v>0.187822004141405</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02715166322242623</v>
+        <v>0.03369275450244046</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>916451021.4201794</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4575215308.851733</v>
+        <v>3683432081.703602</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1656688327219615</v>
+        <v>0.1958056606948777</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04138742740546341</v>
+        <v>0.04883578173666004</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>136</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2287607720.833591</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3840312971.959694</v>
+        <v>3264415614.914292</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1699972788364199</v>
+        <v>0.1410389511511526</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04564789490654782</v>
+        <v>0.04869999119124793</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>134</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1920156487.50851</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2408719451.245935</v>
+        <v>3034587681.400465</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1658952052906826</v>
+        <v>0.1385881983311017</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03930415828058218</v>
+        <v>0.0503171343402715</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>111</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1204359689.479377</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3225949890.941723</v>
+        <v>3763939155.337723</v>
       </c>
       <c r="F13" t="n">
-        <v>0.065557156893741</v>
+        <v>0.08081453122230574</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02404678642075347</v>
+        <v>0.02273045806025637</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>108</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1612975039.721163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3150151085.034621</v>
+        <v>2410146998.526818</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1625618940894525</v>
+        <v>0.1647567313244232</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03791641938040251</v>
+        <v>0.04327248334537052</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>105</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1575075566.088523</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1701569160.631084</v>
+        <v>1773380217.876175</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09113398255564517</v>
+        <v>0.07373244529115254</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03482149200715743</v>
+        <v>0.03618502516805498</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>850784711.5260725</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2737473494.382246</v>
+        <v>2437299268.493087</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09124865764175252</v>
+        <v>0.07043030970386373</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03565144850898638</v>
+        <v>0.04109884246981827</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>64</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1368736756.797196</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4155136522.503652</v>
+        <v>3633728748.574246</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1268893813286519</v>
+        <v>0.1256023281974606</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04586676317151574</v>
+        <v>0.03525566572162494</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>94</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2077568288.143185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3890853108.746678</v>
+        <v>3412605563.988588</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1218020783432891</v>
+        <v>0.1248076865476246</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02570095964055839</v>
+        <v>0.02441978976896324</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>106</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1945426520.111804</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1090793766.097615</v>
+        <v>1132121029.194908</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1178242926729431</v>
+        <v>0.1366221539202978</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02098783388464238</v>
+        <v>0.02266931184303827</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>545396934.3937174</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2622356655.533556</v>
+        <v>2155431521.346232</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1137386298432416</v>
+        <v>0.1589490210326945</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03167562946207524</v>
+        <v>0.02987843056866585</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1311178287.835329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1984014412.308392</v>
+        <v>1749612651.324833</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08062710799544237</v>
+        <v>0.09654435076108897</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03717464308022814</v>
+        <v>0.0394278545650748</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>992007243.6134803</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3539322163.122363</v>
+        <v>2505002078.024415</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1428686239649144</v>
+        <v>0.1087783500579653</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04281150221124463</v>
+        <v>0.04091127218841632</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>91</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1769661110.80367</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1190070008.890891</v>
+        <v>1365879370.351454</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1145978286988761</v>
+        <v>0.1263778964547937</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04875743265393005</v>
+        <v>0.04731329568960487</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>595035042.6145008</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3846538987.279436</v>
+        <v>3864491800.635005</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1426623666945407</v>
+        <v>0.106026716672378</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03616125665778874</v>
+        <v>0.03617290453072126</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>94</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1923269471.960307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1161688195.502643</v>
+        <v>1094714120.808108</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1110675403838823</v>
+        <v>0.1210896680747888</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01965544972025176</v>
+        <v>0.03005955756337796</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>580844124.5368263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>985862871.756677</v>
+        <v>1098833508.879441</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1140662085109037</v>
+        <v>0.1019782875309212</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03847076603077207</v>
+        <v>0.0317427048092024</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>492931404.4785603</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3701109899.992883</v>
+        <v>2929934927.349443</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1314092574473625</v>
+        <v>0.09568671709652503</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02368409205033098</v>
+        <v>0.02239730014944808</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1850554974.999367</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2580473382.103922</v>
+        <v>2800341430.624218</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1291089031664711</v>
+        <v>0.09317304766542783</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03458284481090688</v>
+        <v>0.04961206651487519</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1290236665.853656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4805284113.259922</v>
+        <v>5209030782.7437</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1488647496771819</v>
+        <v>0.112095168221682</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04300916860667517</v>
+        <v>0.03280123606222869</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>143</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2402642017.690622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1993823219.866305</v>
+        <v>1573420429.769719</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09594202255255824</v>
+        <v>0.09050151678133496</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02682014876825874</v>
+        <v>0.03429550600125992</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>996911646.6783838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1458888239.100069</v>
+        <v>1053956245.565012</v>
       </c>
       <c r="F31" t="n">
-        <v>0.110496287796548</v>
+        <v>0.08648151854721492</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03795970446536163</v>
+        <v>0.04231262583850162</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>729444010.0719392</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1519981015.298469</v>
+        <v>1735511856.390855</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0994381438273208</v>
+        <v>0.1058010997670396</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0285592693417425</v>
+        <v>0.03360805345168477</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>759990580.1503669</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2564357115.396012</v>
+        <v>2047789793.820315</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1731311983124361</v>
+        <v>0.1948853687168745</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0477851245135155</v>
+        <v>0.05245762686174579</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>97</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1282178590.415675</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1266475375.038287</v>
+        <v>1268363261.423377</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09861537458448563</v>
+        <v>0.07776008946653176</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02432873022825515</v>
+        <v>0.02066645998255667</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>633237681.6807597</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>921551781.913317</v>
+        <v>833420847.4306214</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09297201365778876</v>
+        <v>0.1128085434962557</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02725337044255976</v>
+        <v>0.02970574035025155</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>460775926.742572</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2678207727.291824</v>
+        <v>2913941132.527676</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1105366222352046</v>
+        <v>0.1095875488774997</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02072848019946976</v>
+        <v>0.02776363162176195</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>81</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1339103871.351056</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2423005060.770076</v>
+        <v>2736301446.069464</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07342778969771502</v>
+        <v>0.08074371196362588</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02606979238820848</v>
+        <v>0.02695186961082248</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>88</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1211502615.865957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1852791496.808146</v>
+        <v>2025623450.054675</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09209357107005736</v>
+        <v>0.09545419473659823</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03001143641273234</v>
+        <v>0.03215947639020446</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>926395747.8311257</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2149384231.867622</v>
+        <v>2222124470.578287</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1269700588028762</v>
+        <v>0.1169944291325216</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02714048419655507</v>
+        <v>0.02730082728406126</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1074692087.803881</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1190659331.650203</v>
+        <v>1237040028.632189</v>
       </c>
       <c r="F40" t="n">
-        <v>0.161222132212456</v>
+        <v>0.1266280518086824</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03628273905089027</v>
+        <v>0.05104336672095404</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>595329709.4678836</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2859056663.304837</v>
+        <v>1899316969.168794</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1026138891264864</v>
+        <v>0.120786405658136</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04198850748691537</v>
+        <v>0.03579932900076502</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>81</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1429528321.767613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3613139028.076235</v>
+        <v>4196411142.585842</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09269739724094687</v>
+        <v>0.1134397753651853</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04091498666798694</v>
+        <v>0.03616425918569808</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>105</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1806569516.711412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2566703960.363277</v>
+        <v>3077671863.256209</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2025865263724937</v>
+        <v>0.1698821532979712</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02369153050525225</v>
+        <v>0.023479894119764</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>116</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1283352022.147724</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1716669216.393028</v>
+        <v>1533541009.97415</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08766989096742354</v>
+        <v>0.06657067164319132</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02965986361874244</v>
+        <v>0.03235330382906879</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>858334658.0081925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1702167659.149923</v>
+        <v>1786882967.402784</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1480454332177939</v>
+        <v>0.1532507356246546</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04758154256560715</v>
+        <v>0.05415070437373089</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>851083790.4149085</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4565990773.336411</v>
+        <v>3987059099.641394</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1589929849129957</v>
+        <v>0.1329342787159899</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05113500393454811</v>
+        <v>0.05191468476181729</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>115</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2282995388.649012</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3769465038.552555</v>
+        <v>3176146429.744406</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1784908935055919</v>
+        <v>0.2038549301452103</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04225626605281133</v>
+        <v>0.05279513832442153</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>87</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1884732505.391988</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3692268809.130018</v>
+        <v>3721185804.661161</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1020528490067772</v>
+        <v>0.07621972572091054</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03631532395875222</v>
+        <v>0.02431214273741645</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1846134456.813092</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1616578955.456615</v>
+        <v>1824986314.759904</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1204080159425447</v>
+        <v>0.1773213466437157</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03748547051635353</v>
+        <v>0.03971455984978191</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>808289491.6394181</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2922661626.469437</v>
+        <v>2583583281.068667</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1544906319818914</v>
+        <v>0.1499327183734702</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05189117314944357</v>
+        <v>0.05018373941952401</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>111</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1461330878.566308</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1242230594.426734</v>
+        <v>1199720930.337906</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1449736182081324</v>
+        <v>0.1679766870932968</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04797852770383843</v>
+        <v>0.05230387806730492</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>621115341.9333177</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3490853103.543866</v>
+        <v>4947293536.041607</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1063751342126841</v>
+        <v>0.09113639524101308</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06092622069405752</v>
+        <v>0.04822440760410381</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>133</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1745426638.22535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2527079267.768098</v>
+        <v>2885355543.254117</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1629094911652529</v>
+        <v>0.1445193305695672</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0327112812230367</v>
+        <v>0.02953372663162369</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>93</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1263539698.997687</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4051072499.409455</v>
+        <v>4334224085.322646</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1221326965171921</v>
+        <v>0.1120402256467379</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04365912974477719</v>
+        <v>0.04036971346164955</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>106</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2025536317.807435</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3225998324.010592</v>
+        <v>3194581612.352486</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2227373831177464</v>
+        <v>0.184990319983368</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02120084777206032</v>
+        <v>0.03103808713984201</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1612999102.742096</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1829021484.251203</v>
+        <v>1678825930.412999</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1559525940378458</v>
+        <v>0.1484140681548163</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05042117210736138</v>
+        <v>0.04481756752421381</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>914510735.6060516</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4001743123.832077</v>
+        <v>3992514864.598639</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1208406116777241</v>
+        <v>0.1706377459932983</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01899987623331057</v>
+        <v>0.02047794701984047</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>103</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2000871650.436065</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1861731981.358275</v>
+        <v>1265298977.816298</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1383462643105869</v>
+        <v>0.1776917991564279</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03369684052132683</v>
+        <v>0.02463812208660243</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>930865988.8120003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3848089932.131999</v>
+        <v>3634227366.923924</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1106969393540734</v>
+        <v>0.1122597589627647</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04355463356161281</v>
+        <v>0.04918764871179079</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1924044949.355838</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2498659995.75316</v>
+        <v>3424007898.80702</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2029733049143727</v>
+        <v>0.1772659752733175</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03018417918756006</v>
+        <v>0.02016479413137328</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1249330015.644064</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2923324609.516076</v>
+        <v>2458392970.060095</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1463183038623652</v>
+        <v>0.1768075204461323</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02648806301231729</v>
+        <v>0.02965514667015976</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>111</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1461662292.465302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1624773118.026507</v>
+        <v>1415568311.156591</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1515289118335615</v>
+        <v>0.1697503405925337</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04766607073371201</v>
+        <v>0.03309567988924639</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>812386560.8062472</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4092248790.474247</v>
+        <v>5363748742.847719</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06957762795937289</v>
+        <v>0.08656562143950182</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04316302931715986</v>
+        <v>0.03497081935666604</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>92</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2046124453.500717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4995401319.600533</v>
+        <v>4208816121.778745</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1164788572909452</v>
+        <v>0.1899077317144767</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02416844333524129</v>
+        <v>0.03289764868276451</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>100</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2497700765.682672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5513165453.836908</v>
+        <v>4645814521.069471</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1320816878440234</v>
+        <v>0.1540638503555402</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02802346429930881</v>
+        <v>0.028850551413582</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>116</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2756582655.198587</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5579405065.09947</v>
+        <v>5592196216.211275</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1146506657768691</v>
+        <v>0.1078172240845767</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04602672063393393</v>
+        <v>0.04950419689806809</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>94</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2789702590.794113</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2960064010.540544</v>
+        <v>2824915479.471841</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07104162001256317</v>
+        <v>0.09849610759775246</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03965186504166911</v>
+        <v>0.05038515415649394</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>103</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1480032026.887271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4882946519.938374</v>
+        <v>3997140295.468335</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1197688999701172</v>
+        <v>0.1297969032318729</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04696175725742029</v>
+        <v>0.04067707847934164</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2441473309.263801</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2038679319.500988</v>
+        <v>1766859051.76218</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1617355991893225</v>
+        <v>0.151856949954174</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04894282672152646</v>
+        <v>0.04908544799330049</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1019339669.711863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3425623927.99957</v>
+        <v>2636282718.682092</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07189697121720856</v>
+        <v>0.07582168273381751</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04928297794460803</v>
+        <v>0.0411556970305391</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>92</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1712811968.654468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4681572692.059748</v>
+        <v>5493758208.566916</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1457056419462921</v>
+        <v>0.1510570553206208</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03042135524421172</v>
+        <v>0.02217141480572397</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>119</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2340786428.001643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1974542354.806353</v>
+        <v>1990666148.426805</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06634911259274785</v>
+        <v>0.09939538181427746</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05281997365183388</v>
+        <v>0.03432034323844325</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>987271127.8564068</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3090472649.225466</v>
+        <v>2429267053.670316</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08020085116347941</v>
+        <v>0.1100982018313594</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03736228754606201</v>
+        <v>0.03328900941185591</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>126</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1545236312.297254</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3515720695.210359</v>
+        <v>2764399199.497646</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1422782994246928</v>
+        <v>0.1444617130577301</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02796250110887376</v>
+        <v>0.02435420455085103</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>111</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1757860368.42118</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2305948447.360929</v>
+        <v>1793681267.560661</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1018840611282569</v>
+        <v>0.1545152333730479</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03396386316866475</v>
+        <v>0.02515980699450414</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1152974159.251445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4626778534.426289</v>
+        <v>3621246825.178146</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1081621469595096</v>
+        <v>0.08347900878905662</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02857313804942838</v>
+        <v>0.02629128409310582</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2313389278.240297</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1538503974.563356</v>
+        <v>2145245378.629978</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1833489999758285</v>
+        <v>0.1849343118331598</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02029725173264567</v>
+        <v>0.03179007302870457</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>769251980.6316215</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4560730807.092844</v>
+        <v>4609342035.042501</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09576427969638986</v>
+        <v>0.1017670114516406</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03892744528859798</v>
+        <v>0.03620854556719019</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>112</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2280365329.131835</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1767170597.660403</v>
+        <v>1179490359.73656</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1373037730193623</v>
+        <v>0.1244601453228002</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03271003661236251</v>
+        <v>0.02517451234309221</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>883585379.7865971</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4281735527.869668</v>
+        <v>3791191826.090416</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06741388898920052</v>
+        <v>0.08784270192848766</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03187936462181355</v>
+        <v>0.02491874521360042</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>68</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2140867777.421776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5072810127.136888</v>
+        <v>3520771985.218977</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1344585705480533</v>
+        <v>0.1111835270681674</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02814498157735388</v>
+        <v>0.02764261892640802</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2536405066.626083</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4934920850.202603</v>
+        <v>4176910475.607136</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2099283856897629</v>
+        <v>0.1659903197534879</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02502096152714187</v>
+        <v>0.02549147403453113</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>114</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2467460412.663371</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1964218623.646153</v>
+        <v>2006054323.898248</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1140940033027684</v>
+        <v>0.1242757179430928</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04413292037172738</v>
+        <v>0.03549222561221886</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>982109292.6879085</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2285412274.480614</v>
+        <v>1801957225.704724</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08417483066155208</v>
+        <v>0.07998848260847416</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03545593454259221</v>
+        <v>0.04219677903301389</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1142706100.461033</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3367737331.751068</v>
+        <v>2342975061.400216</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1440373440769944</v>
+        <v>0.1401944905566463</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03840767625566467</v>
+        <v>0.03557595382300699</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>122</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1683868766.614974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1886789893.273561</v>
+        <v>2252156274.662467</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1289059199122875</v>
+        <v>0.1099715243901504</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02565573629195956</v>
+        <v>0.01732089852221119</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>44</v>
-      </c>
-      <c r="J86" t="n">
-        <v>943394958.5299538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1485619804.477066</v>
+        <v>1149534576.311709</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1512962160356706</v>
+        <v>0.1350530024387287</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03726026894545978</v>
+        <v>0.03066772826642834</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>742810031.0453894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2500171005.740548</v>
+        <v>2688385172.072813</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1535934391137597</v>
+        <v>0.1349795761223619</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03191847095573551</v>
+        <v>0.03603712445351336</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>128</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1250085483.925829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2897021051.782106</v>
+        <v>3474831334.641991</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1469012859571581</v>
+        <v>0.1147362024826183</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04142081894206467</v>
+        <v>0.03750782416634896</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>110</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1448510571.554782</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1882379516.968489</v>
+        <v>1483453540.223873</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09577220120071291</v>
+        <v>0.1373309153115145</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04997947566859253</v>
+        <v>0.03487167049484825</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>941189807.2053914</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1402609911.703464</v>
+        <v>2054849614.611185</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1432825460815786</v>
+        <v>0.1403839005666536</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05643571706957288</v>
+        <v>0.0518268278998248</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>701305007.7572567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2678898137.686546</v>
+        <v>2579756640.593801</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1027602961385726</v>
+        <v>0.09545532450133426</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04452673411286378</v>
+        <v>0.03281408972226414</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>88</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1339449066.356194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3245856531.570823</v>
+        <v>5036098677.163377</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09144402276399148</v>
+        <v>0.1085067283107646</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04947171822667459</v>
+        <v>0.052675328338312</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1622928315.172695</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1734306064.607366</v>
+        <v>2124540945.311261</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1485708038122179</v>
+        <v>0.1098371929518746</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03085977723238667</v>
+        <v>0.02649323188719435</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>867152996.1318955</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2744109716.731573</v>
+        <v>2466912771.305921</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0907368969375507</v>
+        <v>0.1250823785897711</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03473789234440779</v>
+        <v>0.05038083451175091</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>77</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1372054876.693106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2341292941.373214</v>
+        <v>1646180695.319593</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0862141448130497</v>
+        <v>0.1023741146363067</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03525301659595868</v>
+        <v>0.04129847287659904</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1170646421.241463</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5052122817.773961</v>
+        <v>4774493617.118614</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1512012471016813</v>
+        <v>0.1306136519706004</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0201335289080552</v>
+        <v>0.02577646008969332</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>103</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2526061549.883468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2816788336.844072</v>
+        <v>3387585736.814961</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1120510196766302</v>
+        <v>0.1286606557859369</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0322772016940513</v>
+        <v>0.02627992156932503</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1408394140.680141</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2068480508.121507</v>
+        <v>3311522683.154727</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1440846061083881</v>
+        <v>0.09044327385086763</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02303183613279714</v>
+        <v>0.03268370727454525</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>101</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1034240172.515019</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3904585237.798587</v>
+        <v>3666419863.151216</v>
       </c>
       <c r="F100" t="n">
-        <v>0.179899535629807</v>
+        <v>0.1501719512776817</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02660049465729331</v>
+        <v>0.02708796446024509</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>99</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1952292681.961647</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2875916080.529459</v>
+        <v>2477318311.54142</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1977690920468556</v>
+        <v>0.2072146632094931</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03652247132798039</v>
+        <v>0.03632938527951744</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>130</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1437958112.933874</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_325.xlsx
+++ b/output/fit_clients/fit_round_325.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2351802423.142993</v>
+        <v>2117609062.528234</v>
       </c>
       <c r="F2" t="n">
-        <v>0.110692296985161</v>
+        <v>0.1137242317219039</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04151269759990531</v>
+        <v>0.03540311899219498</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1988251789.201054</v>
+        <v>2341891510.357935</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1823985693048152</v>
+        <v>0.1832783936588872</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04238771752870449</v>
+        <v>0.0353759617842101</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4504526498.869892</v>
+        <v>3804847818.829501</v>
       </c>
       <c r="F4" t="n">
-        <v>0.148963109359896</v>
+        <v>0.1622515918834894</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03804122151340914</v>
+        <v>0.03831076898263302</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3494012429.680575</v>
+        <v>2610041626.737435</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07955374671034914</v>
+        <v>0.06948141009027789</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04040752748072143</v>
+        <v>0.03231849268606379</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2520021373.95513</v>
+        <v>2435422432.299096</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1298973406150459</v>
+        <v>0.09472887677017786</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05195390760938164</v>
+        <v>0.04723751427282191</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2257792520.049921</v>
+        <v>2944459179.671042</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09216498439698803</v>
+        <v>0.07899356721924436</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04588923688242519</v>
+        <v>0.03601289236497536</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3920623963.327676</v>
+        <v>3686032241.188207</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1503437303995282</v>
+        <v>0.2093134848848236</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02270721277725599</v>
+        <v>0.02766750757070586</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1832663480.778346</v>
+        <v>2284611560.302659</v>
       </c>
       <c r="F9" t="n">
-        <v>0.187822004141405</v>
+        <v>0.18798753070467</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03369275450244046</v>
+        <v>0.03004647403098737</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3683432081.703602</v>
+        <v>5896562693.939528</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1958056606948777</v>
+        <v>0.1812762768883618</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04883578173666004</v>
+        <v>0.0374350193213341</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3264415614.914292</v>
+        <v>3437369346.345852</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1410389511511526</v>
+        <v>0.1834727726223256</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04869999119124793</v>
+        <v>0.03441445485456084</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3034587681.400465</v>
+        <v>2627599706.218846</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1385881983311017</v>
+        <v>0.1992157432863906</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0503171343402715</v>
+        <v>0.04702969650389516</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3763939155.337723</v>
+        <v>3638447155.703375</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08081453122230574</v>
+        <v>0.1011188712613286</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02273045806025637</v>
+        <v>0.02161317672052862</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2410146998.526818</v>
+        <v>3888582934.211129</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1647567313244232</v>
+        <v>0.1222356428321918</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04327248334537052</v>
+        <v>0.0423899903895848</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1773380217.876175</v>
+        <v>1541392320.89623</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07373244529115254</v>
+        <v>0.1055377546525037</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03618502516805498</v>
+        <v>0.03797713109484187</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2437299268.493087</v>
+        <v>2870883630.07365</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07043030970386373</v>
+        <v>0.08711544685154415</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04109884246981827</v>
+        <v>0.03602633239914186</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3633728748.574246</v>
+        <v>4852490090.356359</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1256023281974606</v>
+        <v>0.1347791504487986</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03525566572162494</v>
+        <v>0.03436806418607811</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3412605563.988588</v>
+        <v>4006560168.334961</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1248076865476246</v>
+        <v>0.1514351139766019</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02441978976896324</v>
+        <v>0.03061957316873146</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1132121029.194908</v>
+        <v>864730000.7705774</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1366221539202978</v>
+        <v>0.1181446912710089</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02266931184303827</v>
+        <v>0.01779008338746483</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2155431521.346232</v>
+        <v>2388268686.517358</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1589490210326945</v>
+        <v>0.1597280590247177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02987843056866585</v>
+        <v>0.02521863803278337</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1749612651.324833</v>
+        <v>2657710324.197295</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09654435076108897</v>
+        <v>0.08258367019523637</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0394278545650748</v>
+        <v>0.0398224401006637</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2505002078.024415</v>
+        <v>3009612082.250642</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1087783500579653</v>
+        <v>0.1110510994410425</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04091127218841632</v>
+        <v>0.03505872686754703</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1365879370.351454</v>
+        <v>1369382999.364967</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1263778964547937</v>
+        <v>0.1202690728551331</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04731329568960487</v>
+        <v>0.03664229479739767</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3864491800.635005</v>
+        <v>2731947972.197244</v>
       </c>
       <c r="F24" t="n">
-        <v>0.106026716672378</v>
+        <v>0.09084075844488469</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03617290453072126</v>
+        <v>0.02966784045975037</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1094714120.808108</v>
+        <v>1028444209.964059</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1210896680747888</v>
+        <v>0.09354489640749668</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03005955756337796</v>
+        <v>0.02840473261203033</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1098833508.879441</v>
+        <v>1174753348.432124</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1019782875309212</v>
+        <v>0.1141040427037713</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0317427048092024</v>
+        <v>0.0297384261125673</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2929934927.349443</v>
+        <v>3952412411.199011</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09568671709652503</v>
+        <v>0.1375750597172399</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02239730014944808</v>
+        <v>0.02431123663116017</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2800341430.624218</v>
+        <v>2424893130.6517</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09317304766542783</v>
+        <v>0.1050483321211563</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04961206651487519</v>
+        <v>0.04564441621308492</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5209030782.7437</v>
+        <v>5360004257.608099</v>
       </c>
       <c r="F29" t="n">
-        <v>0.112095168221682</v>
+        <v>0.1161521273933004</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03280123606222869</v>
+        <v>0.03690806460402352</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1573420429.769719</v>
+        <v>1671897289.763916</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09050151678133496</v>
+        <v>0.09849345059338156</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03429550600125992</v>
+        <v>0.03714732483337813</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1053956245.565012</v>
+        <v>1320332483.551833</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08648151854721492</v>
+        <v>0.08145140709022237</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04231262583850162</v>
+        <v>0.045300542182028</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1735511856.390855</v>
+        <v>1731071348.249294</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1058010997670396</v>
+        <v>0.1152600820651105</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03360805345168477</v>
+        <v>0.03025300998242386</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2047789793.820315</v>
+        <v>2924853257.297947</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1948853687168745</v>
+        <v>0.2025072481850882</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05245762686174579</v>
+        <v>0.05729934166627156</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1268363261.423377</v>
+        <v>1256300561.85095</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07776008946653176</v>
+        <v>0.1172025696660692</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02066645998255667</v>
+        <v>0.02791542930487224</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>833420847.4306214</v>
+        <v>974243459.6852435</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1128085434962557</v>
+        <v>0.1118230965203706</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02970574035025155</v>
+        <v>0.039084614981221</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2913941132.527676</v>
+        <v>2074137721.532839</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1095875488774997</v>
+        <v>0.1154304117568735</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02776363162176195</v>
+        <v>0.02883027015451991</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2736301446.069464</v>
+        <v>2399594200.596807</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08074371196362588</v>
+        <v>0.1115141099625044</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02695186961082248</v>
+        <v>0.02878840284961056</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2025623450.054675</v>
+        <v>1500393807.00356</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09545419473659823</v>
+        <v>0.09976008517614741</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03215947639020446</v>
+        <v>0.02496538869557799</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2222124470.578287</v>
+        <v>1711706006.660639</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1169944291325216</v>
+        <v>0.1275518021903184</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02730082728406126</v>
+        <v>0.02660896253336806</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1237040028.632189</v>
+        <v>1224153858.802033</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1266280518086824</v>
+        <v>0.1049016872144238</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05104336672095404</v>
+        <v>0.05716667102666309</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1899316969.168794</v>
+        <v>2331572987.741838</v>
       </c>
       <c r="F41" t="n">
-        <v>0.120786405658136</v>
+        <v>0.1523416947267689</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03579932900076502</v>
+        <v>0.03389621157873409</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4196411142.585842</v>
+        <v>3842796257.619339</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1134397753651853</v>
+        <v>0.1037364568467151</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03616425918569808</v>
+        <v>0.03082594566851998</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3077671863.256209</v>
+        <v>2334495194.104895</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1698821532979712</v>
+        <v>0.1255049208900214</v>
       </c>
       <c r="G43" t="n">
-        <v>0.023479894119764</v>
+        <v>0.0168660772197135</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1533541009.97415</v>
+        <v>1863884611.817535</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06657067164319132</v>
+        <v>0.07336387203182917</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03235330382906879</v>
+        <v>0.02401454845357547</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1786882967.402784</v>
+        <v>2295654901.682329</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1532507356246546</v>
+        <v>0.1250890529627952</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05415070437373089</v>
+        <v>0.05211575136736547</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3987059099.641394</v>
+        <v>5585808713.576012</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1329342787159899</v>
+        <v>0.1593409193566062</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05191468476181729</v>
+        <v>0.05463078484409188</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3176146429.744406</v>
+        <v>4823750180.256992</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2038549301452103</v>
+        <v>0.2037773948195122</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05279513832442153</v>
+        <v>0.04996332029688494</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3721185804.661161</v>
+        <v>3951851275.513953</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07621972572091054</v>
+        <v>0.07644809621373604</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02431214273741645</v>
+        <v>0.03403847130187432</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1824986314.759904</v>
+        <v>1936702783.238584</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1773213466437157</v>
+        <v>0.1959165811006683</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03971455984978191</v>
+        <v>0.02891840186242773</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2583583281.068667</v>
+        <v>2832104805.359204</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1499327183734702</v>
+        <v>0.1570667828668866</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05018373941952401</v>
+        <v>0.03656628394291452</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1199720930.337906</v>
+        <v>1008811511.503278</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1679766870932968</v>
+        <v>0.1233383292500135</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05230387806730492</v>
+        <v>0.03540543762812312</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4947293536.041607</v>
+        <v>4115644579.899925</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09113639524101308</v>
+        <v>0.1188535779200411</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04822440760410381</v>
+        <v>0.0590064206490003</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2885355543.254117</v>
+        <v>3514535855.841452</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1445193305695672</v>
+        <v>0.1809729785943845</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02953372663162369</v>
+        <v>0.02475850346132354</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4334224085.322646</v>
+        <v>3800729722.829464</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1120402256467379</v>
+        <v>0.1423122501922595</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04036971346164955</v>
+        <v>0.0354538233527663</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3194581612.352486</v>
+        <v>3811958098.880476</v>
       </c>
       <c r="F55" t="n">
-        <v>0.184990319983368</v>
+        <v>0.2241520027854138</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03103808713984201</v>
+        <v>0.02954248105634722</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1678825930.412999</v>
+        <v>1274987670.75988</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1484140681548163</v>
+        <v>0.1371178939528197</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04481756752421381</v>
+        <v>0.04370520562947771</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3992514864.598639</v>
+        <v>3905806484.559504</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1706377459932983</v>
+        <v>0.1212100570928707</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02047794701984047</v>
+        <v>0.01668143945109097</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1265298977.816298</v>
+        <v>1661328498.992635</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1776917991564279</v>
+        <v>0.1600664474873862</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02463812208660243</v>
+        <v>0.03708823497922401</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3634227366.923924</v>
+        <v>3317365381.017377</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1122597589627647</v>
+        <v>0.1111651133523791</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04918764871179079</v>
+        <v>0.03201723907674092</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3424007898.80702</v>
+        <v>2636115845.840841</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1772659752733175</v>
+        <v>0.1563249173398209</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02016479413137328</v>
+        <v>0.02019305370025227</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2458392970.060095</v>
+        <v>3226437202.796832</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1768075204461323</v>
+        <v>0.1649004271113457</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02965514667015976</v>
+        <v>0.02780533807466738</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1415568311.156591</v>
+        <v>1887819548.335237</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1697503405925337</v>
+        <v>0.1530387927721247</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03309567988924639</v>
+        <v>0.04159493105825519</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5363748742.847719</v>
+        <v>4884165238.36158</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08656562143950182</v>
+        <v>0.08622134378153888</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03497081935666604</v>
+        <v>0.03165814229167171</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4208816121.778745</v>
+        <v>3660163526.810215</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1899077317144767</v>
+        <v>0.1327610419057017</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03289764868276451</v>
+        <v>0.02827211785603121</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4645814521.069471</v>
+        <v>5945876729.073558</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1540638503555402</v>
+        <v>0.1113534090130229</v>
       </c>
       <c r="G65" t="n">
-        <v>0.028850551413582</v>
+        <v>0.02345177592314086</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5592196216.211275</v>
+        <v>3937581792.884149</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1078172240845767</v>
+        <v>0.1007062584540347</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04950419689806809</v>
+        <v>0.04963830848185184</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2824915479.471841</v>
+        <v>2532964441.096356</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09849610759775246</v>
+        <v>0.06741464795014734</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05038515415649394</v>
+        <v>0.0475893029259199</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3997140295.468335</v>
+        <v>3904226011.882938</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1297969032318729</v>
+        <v>0.1507301789927899</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04067707847934164</v>
+        <v>0.05080610953174983</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1766859051.76218</v>
+        <v>1861295969.36579</v>
       </c>
       <c r="F69" t="n">
-        <v>0.151856949954174</v>
+        <v>0.1135421629257433</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04908544799330049</v>
+        <v>0.05831120348381386</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2636282718.682092</v>
+        <v>3587078812.817994</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07582168273381751</v>
+        <v>0.07384244211867659</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0411556970305391</v>
+        <v>0.0394341136248827</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5493758208.566916</v>
+        <v>5515365692.653934</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1510570553206208</v>
+        <v>0.1844711793157018</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02217141480572397</v>
+        <v>0.02501555725522126</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1990666148.426805</v>
+        <v>1493355153.768796</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09939538181427746</v>
+        <v>0.08486039106738755</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03432034323844325</v>
+        <v>0.04749773355550806</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2429267053.670316</v>
+        <v>3001697112.777207</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1100982018313594</v>
+        <v>0.07655024375114121</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03328900941185591</v>
+        <v>0.05238645402935813</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2764399199.497646</v>
+        <v>2516542561.1115</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1444617130577301</v>
+        <v>0.1425228669458891</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02435420455085103</v>
+        <v>0.02595889136605213</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1793681267.560661</v>
+        <v>1876511109.37123</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1545152333730479</v>
+        <v>0.1508423872384799</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02515980699450414</v>
+        <v>0.02914110809752984</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3621246825.178146</v>
+        <v>3686127552.068721</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08347900878905662</v>
+        <v>0.08851965853108089</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02629128409310582</v>
+        <v>0.02278704725373989</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2145245378.629978</v>
+        <v>2237534812.80602</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1849343118331598</v>
+        <v>0.1321666873028725</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03179007302870457</v>
+        <v>0.02657900987379831</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4609342035.042501</v>
+        <v>3208327086.70216</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1017670114516406</v>
+        <v>0.1308811206250471</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03620854556719019</v>
+        <v>0.03726962472988378</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1179490359.73656</v>
+        <v>1788607459.175534</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1244601453228002</v>
+        <v>0.1647598365490541</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02517451234309221</v>
+        <v>0.02621689558272235</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3791191826.090416</v>
+        <v>5229330327.721181</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08784270192848766</v>
+        <v>0.08179438577953982</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02491874521360042</v>
+        <v>0.03813015684517522</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3520771985.218977</v>
+        <v>3492762757.89067</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1111835270681674</v>
+        <v>0.08579034292233087</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02764261892640802</v>
+        <v>0.02754684853899447</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4176910475.607136</v>
+        <v>3686688172.968185</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1659903197534879</v>
+        <v>0.1812645076540889</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02549147403453113</v>
+        <v>0.01899366340182805</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2006054323.898248</v>
+        <v>1560944285.928112</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1242757179430928</v>
+        <v>0.1346421273128371</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03549222561221886</v>
+        <v>0.04391081320528603</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1801957225.704724</v>
+        <v>2020312719.546354</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07998848260847416</v>
+        <v>0.08544713438901794</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04219677903301389</v>
+        <v>0.03169605491119745</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2342975061.400216</v>
+        <v>3498740296.164019</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1401944905566463</v>
+        <v>0.1139776579380511</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03557595382300699</v>
+        <v>0.05403135940760202</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2252156274.662467</v>
+        <v>2589193484.361144</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1099715243901504</v>
+        <v>0.1485721112351727</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01732089852221119</v>
+        <v>0.01834533546572259</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1149534576.311709</v>
+        <v>1003497256.587058</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1350530024387287</v>
+        <v>0.1635143949858945</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03066772826642834</v>
+        <v>0.03964844961151207</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2688385172.072813</v>
+        <v>3019682603.477107</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1349795761223619</v>
+        <v>0.166911330303147</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03603712445351336</v>
+        <v>0.03007369912484558</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3474831334.641991</v>
+        <v>2456066863.209918</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1147362024826183</v>
+        <v>0.1038093025906256</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03750782416634896</v>
+        <v>0.02904888078496441</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1483453540.223873</v>
+        <v>1342772440.749105</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1373309153115145</v>
+        <v>0.1060655646931881</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03487167049484825</v>
+        <v>0.0488518157251303</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2054849614.611185</v>
+        <v>1914144775.068653</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1403839005666536</v>
+        <v>0.1961215933292196</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0518268278998248</v>
+        <v>0.0381581943688396</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2579756640.593801</v>
+        <v>2392250316.834061</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09545532450133426</v>
+        <v>0.07182651939258243</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03281408972226414</v>
+        <v>0.03915387565290502</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5036098677.163377</v>
+        <v>5019263880.089485</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1085067283107646</v>
+        <v>0.1202565544418779</v>
       </c>
       <c r="G93" t="n">
-        <v>0.052675328338312</v>
+        <v>0.05130949988461718</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2124540945.311261</v>
+        <v>2103930730.839152</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1098371929518746</v>
+        <v>0.1270801922521843</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02649323188719435</v>
+        <v>0.0330276271597932</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2466912771.305921</v>
+        <v>2071335148.537079</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1250823785897711</v>
+        <v>0.1368956653762387</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05038083451175091</v>
+        <v>0.03195013574946274</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1646180695.319593</v>
+        <v>1612968506.391374</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1023741146363067</v>
+        <v>0.1182676616301314</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04129847287659904</v>
+        <v>0.02888684887380637</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4774493617.118614</v>
+        <v>5136685590.670471</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1306136519706004</v>
+        <v>0.1378615834434643</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02577646008969332</v>
+        <v>0.01918824044929866</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3387585736.814961</v>
+        <v>3753262790.608282</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1286606557859369</v>
+        <v>0.09406973361050001</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02627992156932503</v>
+        <v>0.02154911613059884</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3311522683.154727</v>
+        <v>2822253221.549483</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09044327385086763</v>
+        <v>0.1037164193655101</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03268370727454525</v>
+        <v>0.03368141439801429</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3666419863.151216</v>
+        <v>3163008022.182359</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1501719512776817</v>
+        <v>0.1292110191285997</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02708796446024509</v>
+        <v>0.02585130471404017</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2477318311.54142</v>
+        <v>3209859516.335158</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2072146632094931</v>
+        <v>0.1841854470738716</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03632938527951744</v>
+        <v>0.05315426380912255</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_325.xlsx
+++ b/output/fit_clients/fit_round_325.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2117609062.528234</v>
+        <v>2493791013.146208</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1137242317219039</v>
+        <v>0.08470886382947916</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03540311899219498</v>
+        <v>0.03862378732960989</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2341891510.357935</v>
+        <v>1650952841.731718</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1832783936588872</v>
+        <v>0.1356194192238972</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0353759617842101</v>
+        <v>0.0397906546736274</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3804847818.829501</v>
+        <v>4604876738.853559</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1622515918834894</v>
+        <v>0.1321463613519198</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03831076898263302</v>
+        <v>0.03200523038003877</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>169</v>
+      </c>
+      <c r="J4" t="n">
+        <v>325</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2610041626.737435</v>
+        <v>3807435231.693967</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06948141009027789</v>
+        <v>0.07050632435712978</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03231849268606379</v>
+        <v>0.04869093125651928</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>130</v>
+      </c>
+      <c r="J5" t="n">
+        <v>325</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2435422432.299096</v>
+        <v>1833119239.895311</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09472887677017786</v>
+        <v>0.1149656846222197</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04723751427282191</v>
+        <v>0.05344069657655768</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2944459179.671042</v>
+        <v>2413586770.815073</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07899356721924436</v>
+        <v>0.09871757468492326</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03601289236497536</v>
+        <v>0.0416476151868608</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3686032241.188207</v>
+        <v>3680416352.682007</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2093134848848236</v>
+        <v>0.1797276976817543</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02766750757070586</v>
+        <v>0.02541127717350446</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>87</v>
+      </c>
+      <c r="J8" t="n">
+        <v>323</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2284611560.302659</v>
+        <v>1542919266.062576</v>
       </c>
       <c r="F9" t="n">
-        <v>0.18798753070467</v>
+        <v>0.1329553694514611</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03004647403098737</v>
+        <v>0.02573885592009873</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5896562693.939528</v>
+        <v>3910777633.990277</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1812762768883618</v>
+        <v>0.1376747452964713</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0374350193213341</v>
+        <v>0.03546340717001732</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>282</v>
+      </c>
+      <c r="J10" t="n">
+        <v>324</v>
+      </c>
+      <c r="K10" t="n">
+        <v>70.05240378758096</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3437369346.345852</v>
+        <v>3584206643.253806</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1834727726223256</v>
+        <v>0.1328912468948062</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03441445485456084</v>
+        <v>0.03903082183512315</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>132</v>
+      </c>
+      <c r="J11" t="n">
+        <v>322</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2627599706.218846</v>
+        <v>2403861296.916429</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1992157432863906</v>
+        <v>0.1357968632762205</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04702969650389516</v>
+        <v>0.04709459051549714</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3638447155.703375</v>
+        <v>4103836259.476719</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1011188712613286</v>
+        <v>0.06165132019339299</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02161317672052862</v>
+        <v>0.03111506088574491</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>169</v>
+      </c>
+      <c r="J13" t="n">
+        <v>324</v>
+      </c>
+      <c r="K13" t="n">
+        <v>72.78677315502443</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3888582934.211129</v>
+        <v>3884681078.765512</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1222356428321918</v>
+        <v>0.1806342100694517</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0423899903895848</v>
+        <v>0.03713906081748883</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>66</v>
+      </c>
+      <c r="J14" t="n">
+        <v>325</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1541392320.89623</v>
+        <v>1672324171.142612</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1055377546525037</v>
+        <v>0.08950853890702766</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03797713109484187</v>
+        <v>0.03950852096270548</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2870883630.07365</v>
+        <v>2428736111.753774</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08711544685154415</v>
+        <v>0.08428450700606804</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03602633239914186</v>
+        <v>0.04708459458301813</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4852490090.356359</v>
+        <v>3946980479.938317</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1347791504487986</v>
+        <v>0.159710191861398</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03436806418607811</v>
+        <v>0.05139085800260065</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>153</v>
+      </c>
+      <c r="J17" t="n">
+        <v>324</v>
+      </c>
+      <c r="K17" t="n">
+        <v>71.6877474321653</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4006560168.334961</v>
+        <v>3496513500.632155</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1514351139766019</v>
+        <v>0.1592227512723345</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03061957316873146</v>
+        <v>0.02590913796409081</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>81</v>
+      </c>
+      <c r="J18" t="n">
+        <v>324</v>
+      </c>
+      <c r="K18" t="n">
+        <v>67.95712121281528</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>864730000.7705774</v>
+        <v>896426373.7995495</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1181446912710089</v>
+        <v>0.1588973008806216</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01779008338746483</v>
+        <v>0.01710542037706232</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2388268686.517358</v>
+        <v>2527869706.140147</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1597280590247177</v>
+        <v>0.1475916847842889</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02521863803278337</v>
+        <v>0.01995970768753198</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2657710324.197295</v>
+        <v>2190260932.369606</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08258367019523637</v>
+        <v>0.085243117068089</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0398224401006637</v>
+        <v>0.04135357239962995</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3009612082.250642</v>
+        <v>3809281748.371462</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1110510994410425</v>
+        <v>0.1365451063592962</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03505872686754703</v>
+        <v>0.03595448244231529</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>325</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1369382999.364967</v>
+        <v>1135685216.208122</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1202690728551331</v>
+        <v>0.1680030921208751</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03664229479739767</v>
+        <v>0.04353215132789213</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2731947972.197244</v>
+        <v>2518176610.603502</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09084075844488469</v>
+        <v>0.1143425931598305</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02966784045975037</v>
+        <v>0.03025699138725975</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>96</v>
+      </c>
+      <c r="J24" t="n">
+        <v>322</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1028444209.964059</v>
+        <v>1127359750.726639</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09354489640749668</v>
+        <v>0.1093920101339966</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02840473261203033</v>
+        <v>0.02541879400528526</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1174753348.432124</v>
+        <v>1295692590.314178</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1141040427037713</v>
+        <v>0.08323356620369123</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0297384261125673</v>
+        <v>0.03825288673475237</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3952412411.199011</v>
+        <v>3419453234.671988</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1375750597172399</v>
+        <v>0.1530862563984688</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02431123663116017</v>
+        <v>0.01849113269031824</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>134</v>
+      </c>
+      <c r="J27" t="n">
+        <v>322</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2424893130.6517</v>
+        <v>3584100438.074973</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1050483321211563</v>
+        <v>0.1015579183539185</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04564441621308492</v>
+        <v>0.04392333626660022</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>70</v>
+      </c>
+      <c r="J28" t="n">
+        <v>321</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1454,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5360004257.608099</v>
+        <v>4160219285.302217</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1161521273933004</v>
+        <v>0.1156835749558992</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03690806460402352</v>
+        <v>0.0467808982617874</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>298</v>
+      </c>
+      <c r="J29" t="n">
+        <v>325</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1671897289.763916</v>
+        <v>1914074916.860898</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09849345059338156</v>
+        <v>0.09688255595875783</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03714732483337813</v>
+        <v>0.0299332215187009</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1320332483.551833</v>
+        <v>1470307176.464479</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08145140709022237</v>
+        <v>0.09387375085647634</v>
       </c>
       <c r="G31" t="n">
-        <v>0.045300542182028</v>
+        <v>0.04295273559774226</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1731071348.249294</v>
+        <v>1300806380.929616</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1152600820651105</v>
+        <v>0.07317830083422244</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03025300998242386</v>
+        <v>0.02644678806185881</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1594,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2924853257.297947</v>
+        <v>2760160041.969655</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2025072481850882</v>
+        <v>0.1875631460623913</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05729934166627156</v>
+        <v>0.04835935790583726</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1256300561.85095</v>
+        <v>1030077411.848195</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1172025696660692</v>
+        <v>0.1124397138371626</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02791542930487224</v>
+        <v>0.01756509586556639</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1664,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>974243459.6852435</v>
+        <v>1099238922.000327</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1118230965203706</v>
+        <v>0.1061065105070331</v>
       </c>
       <c r="G35" t="n">
-        <v>0.039084614981221</v>
+        <v>0.0283195634062882</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2074137721.532839</v>
+        <v>2019364442.780218</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1154304117568735</v>
+        <v>0.1347393278154668</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02883027015451991</v>
+        <v>0.02249469518936549</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2399594200.596807</v>
+        <v>2396558849.935462</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1115141099625044</v>
+        <v>0.09070577187602887</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02878840284961056</v>
+        <v>0.03010786450541339</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1500393807.00356</v>
+        <v>1505301940.511969</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09976008517614741</v>
+        <v>0.107711716087767</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02496538869557799</v>
+        <v>0.0248128214697363</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1711706006.660639</v>
+        <v>1944740734.759205</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1275518021903184</v>
+        <v>0.1458183880928948</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02660896253336806</v>
+        <v>0.03289266638460793</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1839,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1224153858.802033</v>
+        <v>1366647630.328102</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1049016872144238</v>
+        <v>0.128566121151083</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05716667102666309</v>
+        <v>0.05253411326767293</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2331572987.741838</v>
+        <v>2387475956.540556</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1523416947267689</v>
+        <v>0.1491686331671483</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03389621157873409</v>
+        <v>0.03997193206724671</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3842796257.619339</v>
+        <v>3188040634.331433</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1037364568467151</v>
+        <v>0.08779207692986758</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03082594566851998</v>
+        <v>0.02936844661709953</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>136</v>
+      </c>
+      <c r="J42" t="n">
+        <v>324</v>
+      </c>
+      <c r="K42" t="n">
+        <v>55.73126668045236</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2334495194.104895</v>
+        <v>2220935174.381174</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1255049208900214</v>
+        <v>0.1722862559942671</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0168660772197135</v>
+        <v>0.02070557508675546</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1863884611.817535</v>
+        <v>1843958127.633388</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07336387203182917</v>
+        <v>0.1021996163119674</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02401454845357547</v>
+        <v>0.02462545170352894</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2295654901.682329</v>
+        <v>1782302216.888231</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1250890529627952</v>
+        <v>0.1269024438668555</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05211575136736547</v>
+        <v>0.03911054292152755</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5585808713.576012</v>
+        <v>3562316443.624971</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1593409193566062</v>
+        <v>0.1789151079985721</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05463078484409188</v>
+        <v>0.04486555551284724</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>194</v>
+      </c>
+      <c r="J46" t="n">
+        <v>324</v>
+      </c>
+      <c r="K46" t="n">
+        <v>60.89979336041166</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4823750180.256992</v>
+        <v>4834367523.335162</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2037773948195122</v>
+        <v>0.1423091368622049</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04996332029688494</v>
+        <v>0.04116360382970915</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>145</v>
+      </c>
+      <c r="J47" t="n">
+        <v>324</v>
+      </c>
+      <c r="K47" t="n">
+        <v>63.97635789134996</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2125,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3951851275.513953</v>
+        <v>4011570417.403893</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07644809621373604</v>
+        <v>0.08989602195359986</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03403847130187432</v>
+        <v>0.02589957489877542</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>162</v>
+      </c>
+      <c r="J48" t="n">
+        <v>325</v>
+      </c>
+      <c r="K48" t="n">
+        <v>81.48855560216342</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1936702783.238584</v>
+        <v>1404851816.255596</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1959165811006683</v>
+        <v>0.1360506724350191</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02891840186242773</v>
+        <v>0.02985996071500634</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2832104805.359204</v>
+        <v>3539610445.945721</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1570667828668866</v>
+        <v>0.1143363861920513</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03656628394291452</v>
+        <v>0.04035601107810137</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>106</v>
+      </c>
+      <c r="J50" t="n">
+        <v>324</v>
+      </c>
+      <c r="K50" t="n">
+        <v>64.66778015058141</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1008811511.503278</v>
+        <v>1304655298.913419</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1233383292500135</v>
+        <v>0.1212695431121167</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03540543762812312</v>
+        <v>0.03391112736627678</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4115644579.899925</v>
+        <v>5290205266.416866</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1188535779200411</v>
+        <v>0.08862304625680917</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0590064206490003</v>
+        <v>0.03993575949658604</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>196</v>
+      </c>
+      <c r="J52" t="n">
+        <v>325</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3514535855.841452</v>
+        <v>2569526555.259941</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1809729785943845</v>
+        <v>0.1719164933584171</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02475850346132354</v>
+        <v>0.03546524495310291</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3800729722.829464</v>
+        <v>4971474040.221921</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1423122501922595</v>
+        <v>0.1226142245053476</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0354538233527663</v>
+        <v>0.05058274190749832</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>170</v>
+      </c>
+      <c r="J54" t="n">
+        <v>325</v>
+      </c>
+      <c r="K54" t="n">
+        <v>75.22583236837929</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3811958098.880476</v>
+        <v>3962606865.820337</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2241520027854138</v>
+        <v>0.1811850490214602</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02954248105634722</v>
+        <v>0.01965291951234869</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>151</v>
+      </c>
+      <c r="J55" t="n">
+        <v>325</v>
+      </c>
+      <c r="K55" t="n">
+        <v>77.20364523699307</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1274987670.75988</v>
+        <v>1466389580.693257</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1371178939528197</v>
+        <v>0.1629156286955413</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04370520562947771</v>
+        <v>0.03513305552533496</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3905806484.559504</v>
+        <v>4315152196.005399</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1212100570928707</v>
+        <v>0.1137162408522708</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01668143945109097</v>
+        <v>0.02661668253233521</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>133</v>
+      </c>
+      <c r="J57" t="n">
+        <v>325</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1661328498.992635</v>
+        <v>1297103447.282638</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1600664474873862</v>
+        <v>0.1551555943550515</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03708823497922401</v>
+        <v>0.03778699148745587</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3317365381.017377</v>
+        <v>3649193464.750185</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1111651133523791</v>
+        <v>0.1286273563230276</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03201723907674092</v>
+        <v>0.0474307480232606</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>157</v>
+      </c>
+      <c r="J59" t="n">
+        <v>324</v>
+      </c>
+      <c r="K59" t="n">
+        <v>60.85280910081651</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2549,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2636115845.840841</v>
+        <v>3656883216.630937</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1563249173398209</v>
+        <v>0.1596682792579392</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02019305370025227</v>
+        <v>0.03157664044601668</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>56</v>
+      </c>
+      <c r="J60" t="n">
+        <v>325</v>
+      </c>
+      <c r="K60" t="n">
+        <v>80.68303250331317</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3226437202.796832</v>
+        <v>3001299019.971964</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1649004271113457</v>
+        <v>0.1367804866571851</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02780533807466738</v>
+        <v>0.03010740789180078</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1887819548.335237</v>
+        <v>2036738949.888794</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1530387927721247</v>
+        <v>0.1923428934643526</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04159493105825519</v>
+        <v>0.04970066064706746</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4884165238.36158</v>
+        <v>3948712080.098738</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08622134378153888</v>
+        <v>0.08742785626987723</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03165814229167171</v>
+        <v>0.04698978791716469</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>158</v>
+      </c>
+      <c r="J63" t="n">
+        <v>324</v>
+      </c>
+      <c r="K63" t="n">
+        <v>72.79038312955932</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3660163526.810215</v>
+        <v>5387923706.494899</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1327610419057017</v>
+        <v>0.1497704580642787</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02827211785603121</v>
+        <v>0.03401409405927661</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>160</v>
+      </c>
+      <c r="J64" t="n">
+        <v>325</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5945876729.073558</v>
+        <v>5077504285.262807</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1113534090130229</v>
+        <v>0.1347741213666505</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02345177592314086</v>
+        <v>0.02286127160582177</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>255</v>
+      </c>
+      <c r="J65" t="n">
+        <v>324</v>
+      </c>
+      <c r="K65" t="n">
+        <v>72.96262921686514</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3937581792.884149</v>
+        <v>5383961817.566694</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1007062584540347</v>
+        <v>0.1617978351328975</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04963830848185184</v>
+        <v>0.04434657770996662</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>160</v>
+      </c>
+      <c r="J66" t="n">
+        <v>325</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2532964441.096356</v>
+        <v>3500853256.663357</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06741464795014734</v>
+        <v>0.06593236996560053</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0475893029259199</v>
+        <v>0.04738392429122633</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2841,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3904226011.882938</v>
+        <v>5527677054.828136</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1507301789927899</v>
+        <v>0.1283585855067789</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05080610953174983</v>
+        <v>0.0332959748653241</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>176</v>
+      </c>
+      <c r="J68" t="n">
+        <v>324</v>
+      </c>
+      <c r="K68" t="n">
+        <v>73.27917849335191</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1861295969.36579</v>
+        <v>1892589007.351869</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1135421629257433</v>
+        <v>0.1790006117305251</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05831120348381386</v>
+        <v>0.04775715154157401</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3587078812.817994</v>
+        <v>3654344223.761727</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07384244211867659</v>
+        <v>0.07069968076214297</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0394341136248827</v>
+        <v>0.0312339949069169</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>49</v>
+      </c>
+      <c r="J70" t="n">
+        <v>323</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2948,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5515365692.653934</v>
+        <v>4913083546.352604</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1844711793157018</v>
+        <v>0.1232805088325445</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02501555725522126</v>
+        <v>0.02613543463675216</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>239</v>
+      </c>
+      <c r="J71" t="n">
+        <v>325</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1493355153.768796</v>
+        <v>1603978908.560191</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08486039106738755</v>
+        <v>0.07480494748098818</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04749773355550806</v>
+        <v>0.0366418631704232</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3001697112.777207</v>
+        <v>3543901836.275429</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07655024375114121</v>
+        <v>0.07278975113872162</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05238645402935813</v>
+        <v>0.0387130203992619</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2516542561.1115</v>
+        <v>3718552972.277263</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1425228669458891</v>
+        <v>0.1549456654491994</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02595889136605213</v>
+        <v>0.02398709138456437</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>84</v>
+      </c>
+      <c r="J74" t="n">
+        <v>325</v>
+      </c>
+      <c r="K74" t="n">
+        <v>81.69564305756572</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1876511109.37123</v>
+        <v>1659985819.215521</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1508423872384799</v>
+        <v>0.1581604347262321</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02914110809752984</v>
+        <v>0.02397529715336123</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3686127552.068721</v>
+        <v>4084949383.203019</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08851965853108089</v>
+        <v>0.07979326039228718</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02278704725373989</v>
+        <v>0.02352658510107415</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>153</v>
+      </c>
+      <c r="J76" t="n">
+        <v>325</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2237534812.80602</v>
+        <v>1779965871.802276</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1321666873028725</v>
+        <v>0.1193407797750397</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02657900987379831</v>
+        <v>0.03177829524705929</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3208327086.70216</v>
+        <v>3931331366.926363</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1308811206250471</v>
+        <v>0.1184045241360679</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03726962472988378</v>
+        <v>0.03620575726481649</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>160</v>
+      </c>
+      <c r="J78" t="n">
+        <v>324</v>
+      </c>
+      <c r="K78" t="n">
+        <v>74.97627362321131</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1788607459.175534</v>
+        <v>1571684250.610349</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1647598365490541</v>
+        <v>0.1370237126753021</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02621689558272235</v>
+        <v>0.03475150622645244</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5229330327.721181</v>
+        <v>5410185233.501367</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08179438577953982</v>
+        <v>0.1018376563045888</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03813015684517522</v>
+        <v>0.03657138118196797</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>159</v>
+      </c>
+      <c r="J80" t="n">
+        <v>324</v>
+      </c>
+      <c r="K80" t="n">
+        <v>57.00319406275744</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3492762757.89067</v>
+        <v>5151556909.788005</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08579034292233087</v>
+        <v>0.1334437382508266</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02754684853899447</v>
+        <v>0.02431538992020659</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>149</v>
+      </c>
+      <c r="J81" t="n">
+        <v>325</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3339,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3686688172.968185</v>
+        <v>4123991895.520463</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1812645076540889</v>
+        <v>0.1584383345273322</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01899366340182805</v>
+        <v>0.02220524784081129</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>234</v>
+      </c>
+      <c r="J82" t="n">
+        <v>325</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1560944285.928112</v>
+        <v>1689654161.816676</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1346421273128371</v>
+        <v>0.152688651806924</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04391081320528603</v>
+        <v>0.03036261022605456</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2020312719.546354</v>
+        <v>2598706331.739949</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08544713438901794</v>
+        <v>0.1051792648435591</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03169605491119745</v>
+        <v>0.04940368116967497</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3498740296.164019</v>
+        <v>2301258146.432947</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1139776579380511</v>
+        <v>0.1832659574551449</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05403135940760202</v>
+        <v>0.03980264619700991</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>43</v>
+      </c>
+      <c r="J85" t="n">
+        <v>322</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2589193484.361144</v>
+        <v>1690219397.556649</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1485721112351727</v>
+        <v>0.1496174871144652</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01834533546572259</v>
+        <v>0.02115284216731942</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1003497256.587058</v>
+        <v>963331364.546046</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1635143949858945</v>
+        <v>0.1322406626308643</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03964844961151207</v>
+        <v>0.02880988112732356</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3019682603.477107</v>
+        <v>3476107712.603749</v>
       </c>
       <c r="F88" t="n">
-        <v>0.166911330303147</v>
+        <v>0.1126261457367221</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03007369912484558</v>
+        <v>0.02948076058998481</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>45</v>
+      </c>
+      <c r="J88" t="n">
+        <v>321</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2456066863.209918</v>
+        <v>3381943042.735905</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1038093025906256</v>
+        <v>0.1453767820134572</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02904888078496441</v>
+        <v>0.03884082570231507</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>314</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1342772440.749105</v>
+        <v>1823810793.244719</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1060655646931881</v>
+        <v>0.08823137904963836</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0488518157251303</v>
+        <v>0.05535554331155859</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1914144775.068653</v>
+        <v>1303334263.721635</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1961215933292196</v>
+        <v>0.1376398651957304</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0381581943688396</v>
+        <v>0.05681083816981227</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2392250316.834061</v>
+        <v>2739929520.747889</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07182651939258243</v>
+        <v>0.1070805833299783</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03915387565290502</v>
+        <v>0.03702183611721069</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3724,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5019263880.089485</v>
+        <v>4638890288.080633</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1202565544418779</v>
+        <v>0.141195762952111</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05130949988461718</v>
+        <v>0.03312835815687203</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>148</v>
+      </c>
+      <c r="J93" t="n">
+        <v>324</v>
+      </c>
+      <c r="K93" t="n">
+        <v>71.26963870570158</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2103930730.839152</v>
+        <v>2291997725.787938</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1270801922521843</v>
+        <v>0.1209300089871282</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0330276271597932</v>
+        <v>0.03052280505154622</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2071335148.537079</v>
+        <v>2437032550.641466</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1368956653762387</v>
+        <v>0.1036839960591345</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03195013574946274</v>
+        <v>0.03975078291386266</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1612968506.391374</v>
+        <v>2022549009.223212</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1182676616301314</v>
+        <v>0.09534998696459862</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02888684887380637</v>
+        <v>0.02894508239755763</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5136685590.670471</v>
+        <v>4898625689.859551</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1378615834434643</v>
+        <v>0.1658129680738299</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01918824044929866</v>
+        <v>0.02216075393220752</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>165</v>
+      </c>
+      <c r="J97" t="n">
+        <v>325</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3753262790.608282</v>
+        <v>3252849659.450792</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09406973361050001</v>
+        <v>0.120294208545671</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02154911613059884</v>
+        <v>0.03083401503987674</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>80</v>
+      </c>
+      <c r="J98" t="n">
+        <v>323</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2822253221.549483</v>
+        <v>3245481788.460818</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1037164193655101</v>
+        <v>0.111817130962473</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03368141439801429</v>
+        <v>0.02162976986963805</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3163008022.182359</v>
+        <v>4187044675.712464</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1292110191285997</v>
+        <v>0.1219193202373957</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02585130471404017</v>
+        <v>0.02030870514235858</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>144</v>
+      </c>
+      <c r="J100" t="n">
+        <v>325</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3209859516.335158</v>
+        <v>3099835302.307306</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1841854470738716</v>
+        <v>0.1804986844706276</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05315426380912255</v>
+        <v>0.04213973817782175</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
